--- a/biology/Mycologie/Suillus_collinitus/Suillus_collinitus.xlsx
+++ b/biology/Mycologie/Suillus_collinitus/Suillus_collinitus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet à base rose
 Suillus collinitus, le Bolet à base rose, est une espèce de champignons basidiomycètes de la famille des Boletaceae. C'est une espèce commune et comestible, bien que sans grand intérêt, qui pousse sous les pins. Il a un chapeau visqueux, brun roux à chocolat. Les pores de la face inférieure sont initialement jaune vif, avant de devenir brun verdâtre avec l'âge. Le mycélium rosé à la base du pied est un élément caractéristique qui permet de le distinguer des espèces similaires, comme le bolet granulé.
@@ -512,62 +524,240 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus collinitus (Fr.) Kuntze, 1898[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus collinitus Fr., 1838[1].
-Synonymes
-Suillus collinitus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus collinitus (Fr.) Kuntze, 1898.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus collinitus Fr., 1838.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Suillus_collinitus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_collinitus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Suillus collinitus a pour synonymes :
 Boletus collinitus Fr., 1838
 Viscipellis collinita (Fr.) Quél., 1886
-Viscipellis collinita (Fr.) Quél., 1886
-Phylogénie
-L'espèce a été décrite pour la première fois sous le nom de Boletus collinitus par Elias Magnus Fries en 1838[2]. Otto Kuntze l'a ensuite transférée au genre Suillus dans son Revisio Generum Plantarum de 1898[3].
-Une analyse moléculaire de 1996 de 38 espèces différentes de Suillus a utilisé les séquences de leurs espaceurs internes transcrits pour inférer les relations phylogénétiques et clarifier la taxinomie du genre. Les résultats ont indiqué que Suillus collinitus était étroitement apparenté à un spécimen de Suillus granulatus prélevé au Népal. Selon les auteurs, cet isolat népalais représente probablement une espèce distincte des isolats nord-américains et européens[4]. En 2006, une analyse phylogénétique des isolats de Suillus collectés en Espagne a montré que Suillus collinitus était étroitement apparenté à d'autres espèces « typiques de la région méditerranéenne », à savoir Suillus bellinii, Suillus luteus et Suillus mediterraneensis[5].
-Étymologie
-L'épithète spécifique collinitus est dérivée du latin et signifie « enduit » ou « graissé »[6].
-Noms vulgaires et vernaculaires
-En français, l'espèce est appelée « bolet à base rose[7],[8] » ou « bolet à base rosée[9] » en raison de la coloration rose typique du mycélium.
+Viscipellis collinita (Fr.) Quél., 1886</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Suillus_collinitus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_collinitus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite pour la première fois sous le nom de Boletus collinitus par Elias Magnus Fries en 1838. Otto Kuntze l'a ensuite transférée au genre Suillus dans son Revisio Generum Plantarum de 1898.
+Une analyse moléculaire de 1996 de 38 espèces différentes de Suillus a utilisé les séquences de leurs espaceurs internes transcrits pour inférer les relations phylogénétiques et clarifier la taxinomie du genre. Les résultats ont indiqué que Suillus collinitus était étroitement apparenté à un spécimen de Suillus granulatus prélevé au Népal. Selon les auteurs, cet isolat népalais représente probablement une espèce distincte des isolats nord-américains et européens. En 2006, une analyse phylogénétique des isolats de Suillus collectés en Espagne a montré que Suillus collinitus était étroitement apparenté à d'autres espèces « typiques de la région méditerranéenne », à savoir Suillus bellinii, Suillus luteus et Suillus mediterraneensis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suillus_collinitus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_collinitus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique collinitus est dérivée du latin et signifie « enduit » ou « graissé ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Suillus_collinitus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_collinitus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En français, l'espèce est appelée « bolet à base rose, » ou « bolet à base rosée » en raison de la coloration rose typique du mycélium.
 Suillus collinitus porte aussi le nom vernaculaire populaire de "Pissacan", du Provençal Pissa-can, signifiant une plante ou un champignon sur lequel les chiens urinent, en réfèrence à l'aspect gluant et à la comestibilité médiocre de cette espèce (et des espèces proches). Ce terme est souvent utilisé de façon vague et inexacte, il est aussi utilisé pour faire réfèrence à n'importe quel Suillus de la section Granulati (Suillus granulatus, Suillus collinitus, Suillus bellinii, Suillus mediterraneensis), ou encore à n'importe quelle espèce du genre Suillus, c'est-à-dire la plupart des bolets à l'aspect gluant et flasque. Néanmoins, il s'agit du nom sous lequel cette espèce et ses proches sont recherchées dans le Sud de la France à des fins de consommation.
 Suillus granulatus est parfois aussi nommé à tort "Cèpe des pins", mais le Cèpe des pins est une tout autre espèce ; Boletus pinophilus.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Suillus_collinitus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Suillus_collinitus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Suillus collinitus, le Bolet à base rose, sont les suivantes :
-Son chapeau est initialement arrondi, puis devient convexe et enfin plat, atteignant jusqu'à 11 cm de diamètre[10]. Il est recouvert d'une cuticule brune de teinte variable et décorée de minuscules stries radiales, qu'on remarque particulièrement chez les spécimens complètement expansés et surtout par temps sec. Le chapeau a souvent une forme irrégulière et devient visqueux lorsqu'il est humide.
-Les tubes sont courts et l'insertion sur le pied est généralement adnée, voire légèrement décurrente. Les pores sont petits et angulaires. Ils sont initialement jaunes mais s'assombrissent avec l'âge. Les spécimens jeunes et frais portent parfois des gouttelettes d'un liquide clair qui s'accumulent à la surface des pores[11].
-Son stipe est cylindrique et trapu, et mesure généralement de 8 à 10 cm de hauteur pour 1,5 à 2,5 cm d'épaisseur[11]. Il est jaune vif en haut et crème ailleurs, et orné de granulations brunâtres[8]. Il n'y a pas d'anneau. La base du stipe est attachée au mycélium, distinctement rose, qui devient visible lorsque le champignon est déraciné[11]. La couleur rose du mycélium peut cependant être parfois dure à discerner.
-Sa chair est ferme, blanche dans le chapeau et jaune en bas du pied. Elle a une saveur douce et une odeur faible, évoquant celle des cèpes[8]. Elle devient faiblement rougeâtre en réaction avec une solution d'ammoniaque[11].
-Caractéristiques microscopiques
-Les spores sont de couleur brun ocracé, mais jaune pâle sous le microscope optique. Elles sont fusiformes (effilées à chaque extrémité) et mesurent de 8 à 10,5 μm par 3 à 4,5 μm[11].
-Les basides portent quatre spores[10].
+Son chapeau est initialement arrondi, puis devient convexe et enfin plat, atteignant jusqu'à 11 cm de diamètre. Il est recouvert d'une cuticule brune de teinte variable et décorée de minuscules stries radiales, qu'on remarque particulièrement chez les spécimens complètement expansés et surtout par temps sec. Le chapeau a souvent une forme irrégulière et devient visqueux lorsqu'il est humide.
+Les tubes sont courts et l'insertion sur le pied est généralement adnée, voire légèrement décurrente. Les pores sont petits et angulaires. Ils sont initialement jaunes mais s'assombrissent avec l'âge. Les spécimens jeunes et frais portent parfois des gouttelettes d'un liquide clair qui s'accumulent à la surface des pores.
+Son stipe est cylindrique et trapu, et mesure généralement de 8 à 10 cm de hauteur pour 1,5 à 2,5 cm d'épaisseur. Il est jaune vif en haut et crème ailleurs, et orné de granulations brunâtres. Il n'y a pas d'anneau. La base du stipe est attachée au mycélium, distinctement rose, qui devient visible lorsque le champignon est déraciné. La couleur rose du mycélium peut cependant être parfois dure à discerner.
+Sa chair est ferme, blanche dans le chapeau et jaune en bas du pied. Elle a une saveur douce et une odeur faible, évoquant celle des cèpes. Elle devient faiblement rougeâtre en réaction avec une solution d'ammoniaque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Suillus_collinitus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_collinitus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spores sont de couleur brun ocracé, mais jaune pâle sous le microscope optique. Elles sont fusiformes (effilées à chaque extrémité) et mesurent de 8 à 10,5 μm par 3 à 4,5 μm.
+Les basides portent quatre spores.
 </t>
         </is>
       </c>
